--- a/templates/temp.xlsx
+++ b/templates/temp.xlsx
@@ -966,7 +966,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1479,10 +1479,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1495,6 +1491,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1508,6 +1516,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1519,10 +1531,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
@@ -1535,12 +1543,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="39" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2399,19 +2415,19 @@
       <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -2428,34 +2444,34 @@
       <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -2849,17 +2865,17 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" showWhiteSpace="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="151" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="151" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="25" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="26" customWidth="1"/>
@@ -2893,17 +2909,17 @@
       <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2920,30 +2936,30 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -2953,7 +2969,7 @@
       <c r="C5" s="132"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="133"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="12"/>
       <c r="H5" s="10"/>
       <c r="I5" s="57" t="s">
@@ -2964,10 +2980,10 @@
       <c r="A6" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="136" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="130" t="s">
@@ -2976,7 +2992,7 @@
       <c r="E6" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="136" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="130" t="s">
@@ -2988,52 +3004,52 @@
       <c r="I6" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="134">
+      <c r="J6" s="133">
         <v>1</v>
       </c>
-      <c r="K6" s="134">
+      <c r="K6" s="133">
         <v>2</v>
       </c>
-      <c r="L6" s="134">
+      <c r="L6" s="133">
         <v>3</v>
       </c>
-      <c r="M6" s="134">
+      <c r="M6" s="133">
         <v>4</v>
       </c>
-      <c r="N6" s="134">
+      <c r="N6" s="133">
         <v>5</v>
       </c>
-      <c r="O6" s="134">
+      <c r="O6" s="133">
         <v>6</v>
       </c>
-      <c r="P6" s="134">
+      <c r="P6" s="133">
         <v>7</v>
       </c>
-      <c r="Q6" s="134">
+      <c r="Q6" s="133">
         <v>8</v>
       </c>
-      <c r="R6" s="134">
+      <c r="R6" s="133">
         <v>9</v>
       </c>
-      <c r="S6" s="134">
+      <c r="S6" s="133">
         <v>10</v>
       </c>
-      <c r="T6" s="134">
+      <c r="T6" s="133">
         <v>11</v>
       </c>
-      <c r="U6" s="134">
+      <c r="U6" s="133">
         <v>12</v>
       </c>
-      <c r="V6" s="134">
+      <c r="V6" s="133">
         <v>13</v>
       </c>
-      <c r="W6" s="134">
+      <c r="W6" s="133">
         <v>14</v>
       </c>
-      <c r="X6" s="134">
+      <c r="X6" s="133">
         <v>15</v>
       </c>
-      <c r="Y6" s="134" t="s">
+      <c r="Y6" s="133" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3056,7 +3072,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Лист3"/>
+  <sheetPr codeName="Лист3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3071,10 +3089,10 @@
   <cols>
     <col min="1" max="1" width="3.7109375" style="24" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="151" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="151" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="25" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="26" customWidth="1"/>
@@ -3084,17 +3102,17 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="61" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:25" s="61" customFormat="1" ht="1.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="149"/>
       <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="149"/>
       <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3137,20 +3155,20 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
       <c r="M3" s="117"/>
       <c r="N3" s="117"/>
       <c r="O3" s="117"/>
@@ -3166,64 +3184,64 @@
       <c r="Y3" s="117"/>
     </row>
     <row r="4" spans="1:25" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
     </row>
     <row r="6" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="141"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
     </row>
     <row r="7" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
     </row>
     <row r="8" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3238,88 +3256,83 @@
       <c r="H8" s="12"/>
       <c r="J8" s="86"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="147">
+      <c r="L8" s="137">
         <v>41255</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140" t="s">
+      <c r="K9" s="143"/>
+      <c r="L9" s="143" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="142" t="s">
+      <c r="A10" s="142"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
     </row>
     <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="143"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="135" t="s">
+      <c r="A11" s="142"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="135" t="s">
+      <c r="K11" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="142"/>
+      <c r="L11" s="145"/>
     </row>
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
@@ -3332,11 +3345,16 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="I9:I11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="20" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;D   &amp;T&amp;Rстр. &amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -3363,10 +3381,10 @@
   <cols>
     <col min="1" max="1" width="3.7109375" style="24" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="150" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="150" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="25" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="26" customWidth="1"/>
@@ -3376,17 +3394,17 @@
     <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:27" s="61" customFormat="1" ht="1.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="149"/>
       <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="149"/>
       <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3433,22 +3451,22 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
       <c r="Q3" s="117"/>
@@ -3464,72 +3482,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="141"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3546,78 +3564,78 @@
       <c r="K8" s="30"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="148">
+      <c r="N8" s="138">
         <v>41255</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140" t="s">
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="142" t="s">
+      <c r="A10" s="142"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142" t="s">
+      <c r="K10" s="145"/>
+      <c r="L10" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
     </row>
     <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="143"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -3630,11 +3648,13 @@
       <c r="M11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="142"/>
+      <c r="N11" s="145"/>
     </row>
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="A4:N4"/>
@@ -3651,13 +3671,11 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;D   &amp;T&amp;Rстр. &amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -3750,21 +3768,21 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
       <c r="N3" s="122"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -3781,72 +3799,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3867,69 +3885,69 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
     </row>
     <row r="10" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="142" t="s">
+      <c r="A10" s="142"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142" t="s">
+      <c r="K10" s="145"/>
+      <c r="L10" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="142"/>
+      <c r="M10" s="145"/>
     </row>
     <row r="11" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A11" s="143"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -4284,6 +4302,7 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="A6:M6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="J10:K10"/>
@@ -4300,7 +4319,6 @@
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A6:M6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4393,19 +4411,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="122"/>
       <c r="M3" s="117"/>
       <c r="N3" s="117"/>
@@ -4422,64 +4440,64 @@
       <c r="Y3" s="117"/>
     </row>
     <row r="4" spans="1:25" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
     </row>
     <row r="6" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
     </row>
     <row r="7" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
     </row>
     <row r="8" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4498,48 +4516,48 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" customHeight="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="140"/>
+      <c r="K9" s="143"/>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="33" t="s">
         <v>23</v>
       </c>
@@ -4953,18 +4971,18 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
       <c r="K3" s="122"/>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -4981,60 +4999,60 @@
       <c r="X3" s="117"/>
     </row>
     <row r="4" spans="1:24" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
     </row>
     <row r="5" spans="1:24" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
     </row>
     <row r="7" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5052,31 +5070,31 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="144" t="s">
+      <c r="E9" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="145" t="s">
+      <c r="F9" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="145" t="s">
+      <c r="H9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="145" t="s">
+      <c r="I9" s="147" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="32" t="s">
@@ -5084,15 +5102,15 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1">
-      <c r="A10" s="144"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
+      <c r="A10" s="146"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="33" t="s">
         <v>10</v>
       </c>
@@ -5482,19 +5500,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="121" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
       <c r="L3" s="119"/>
       <c r="M3" s="120"/>
       <c r="N3" s="120"/>
@@ -5511,64 +5529,64 @@
       <c r="Y3" s="120"/>
     </row>
     <row r="4" spans="1:25" s="79" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
     </row>
     <row r="5" spans="1:25" s="98" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
     </row>
     <row r="6" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
     </row>
     <row r="7" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
     </row>
     <row r="8" spans="1:25" s="99" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5587,48 +5605,48 @@
       </c>
     </row>
     <row r="9" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="140"/>
+      <c r="K9" s="143"/>
     </row>
     <row r="10" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="33" t="s">
         <v>23</v>
       </c>
@@ -6047,21 +6065,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:26" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
       <c r="N3" s="117"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -6077,72 +6095,72 @@
       <c r="Z3" s="117"/>
     </row>
     <row r="4" spans="1:26" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
     </row>
     <row r="5" spans="1:26" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
     </row>
     <row r="6" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
     </row>
     <row r="7" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
     </row>
     <row r="8" spans="1:26" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -6163,71 +6181,71 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
     </row>
     <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="142" t="s">
+      <c r="K10" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="142"/>
-      <c r="M10" s="146" t="s">
+      <c r="L10" s="145"/>
+      <c r="M10" s="148" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="143"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="34" t="s">
         <v>28</v>
       </c>
@@ -6237,7 +6255,7 @@
       <c r="L11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="146"/>
+      <c r="M11" s="148"/>
     </row>
     <row r="12" spans="1:26" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="35"/>
@@ -6578,6 +6596,7 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="A3:M3"/>
@@ -6594,7 +6613,6 @@
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/temp.xlsx
+++ b/templates/temp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="360" windowWidth="10575" windowHeight="7035" tabRatio="678" activeTab="1"/>
+    <workbookView xWindow="4095" yWindow="360" windowWidth="10575" windowHeight="7035" tabRatio="678" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="МАСТЕР ЛИСТ" sheetId="13" r:id="rId1"/>
     <sheet name="СТАРТ" sheetId="21" r:id="rId2"/>
-    <sheet name="КЛАССИКА" sheetId="20" r:id="rId3"/>
+    <sheet name="КЛАССИКА" sheetId="23" r:id="rId3"/>
     <sheet name="КЛАССИКА С ПЕРЕПРЫЖКОЙ" sheetId="19" r:id="rId4"/>
     <sheet name="2 ФАЗЫ" sheetId="4" r:id="rId5"/>
     <sheet name="ПО ВОЗРАСТАЮЩЕЙ СЛОЖНОСТИ" sheetId="15" r:id="rId6"/>
@@ -20,7 +20,6 @@
   <definedNames>
     <definedName name="Print_Area" localSheetId="8">'2 ГИТА'!$A$2:$M$33</definedName>
     <definedName name="Print_Area" localSheetId="4">'2 ФАЗЫ'!$A$2:$M$33</definedName>
-    <definedName name="Print_Area" localSheetId="2">КЛАССИКА!$A$2:$L$11</definedName>
     <definedName name="Print_Area" localSheetId="3">'КЛАССИКА С ПЕРЕПРЫЖКОЙ'!$A$2:$N$11</definedName>
     <definedName name="Print_Area" localSheetId="0">'МАСТЕР ЛИСТ'!$A$1:$K$29</definedName>
     <definedName name="Print_Area" localSheetId="7">'НА МАКСИМУМ БАЛЛОВ'!$A$2:$K$32</definedName>
@@ -28,19 +27,18 @@
     <definedName name="Print_Area" localSheetId="6">'ПО ТАБЛИЦЕ С'!$A$2:$J$32</definedName>
     <definedName name="Print_Area" localSheetId="1">СТАРТ!$A$1:$I$6</definedName>
     <definedName name="Print_Titles" localSheetId="8">'2 ГИТА'!$9:$11</definedName>
-    <definedName name="Print_Titles" localSheetId="2">КЛАССИКА!$9:$11</definedName>
     <definedName name="Print_Titles" localSheetId="3">'КЛАССИКА С ПЕРЕПРЫЖКОЙ'!$9:$11</definedName>
     <definedName name="Print_Titles" localSheetId="0">'МАСТЕР ЛИСТ'!$6:$6</definedName>
     <definedName name="Print_Titles" localSheetId="7">'НА МАКСИМУМ БАЛЛОВ'!$9:$10</definedName>
     <definedName name="Print_Titles" localSheetId="5">'ПО ВОЗРАСТАЮЩЕЙ СЛОЖНОСТИ'!$9:$10</definedName>
     <definedName name="Print_Titles" localSheetId="6">'ПО ТАБЛИЦЕ С'!$9:$10</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="66">
   <si>
     <t xml:space="preserve">Преодоление препятствий </t>
   </si>
@@ -966,7 +964,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1483,81 +1481,94 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="39" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="39" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="2" fontId="33" fillId="25" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1719,48 +1730,40 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>69391</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>619124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2057" name="Picture 2" descr="FKSR_logo_new_smtxt"/>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="ФКСРФ.jpg"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="219075"/>
-          <a:ext cx="1866900" cy="542925"/>
+          <a:off x="0" y="57149"/>
+          <a:ext cx="2041066" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2415,19 +2418,19 @@
       <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -2444,34 +2447,34 @@
       <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -2849,7 +2852,7 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;D   &amp;T&amp;Rстр. &amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -2864,7 +2867,7 @@
   </sheetPr>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" showWhiteSpace="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showRuler="0" showWhiteSpace="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2872,10 +2875,10 @@
   <cols>
     <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="151" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="140" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="151" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="140" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="25" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="26" customWidth="1"/>
@@ -2909,17 +2912,17 @@
       <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2936,30 +2939,30 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -2969,7 +2972,7 @@
       <c r="C5" s="132"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="152"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="12"/>
       <c r="H5" s="10"/>
       <c r="I5" s="57" t="s">
@@ -2980,10 +2983,10 @@
       <c r="A6" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="135" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="130" t="s">
@@ -2992,7 +2995,7 @@
       <c r="E6" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="135" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="130" t="s">
@@ -3072,292 +3075,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Лист3">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="11" topLeftCell="M12" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:IV2"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:IV2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:IV2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="151" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="151" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="27" customWidth="1"/>
-    <col min="11" max="11" width="8" style="27" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="143" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="143" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="143" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="156"/>
+    <col min="11" max="11" width="9.140625" style="155"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="61" customFormat="1" ht="1.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="60"/>
-    </row>
-    <row r="2" spans="1:25" ht="45" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-    </row>
-    <row r="3" spans="1:25" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="139" t="s">
+    <row r="1" spans="1:12" ht="4.5" customHeight="1"/>
+    <row r="2" spans="1:12" ht="50.25" customHeight="1"/>
+    <row r="3" spans="1:12" ht="18">
+      <c r="A3" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-    </row>
-    <row r="4" spans="1:25" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-    </row>
-    <row r="5" spans="1:25" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="140" t="s">
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25">
+      <c r="A5" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-    </row>
-    <row r="6" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="144"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-    </row>
-    <row r="7" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="144"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-    </row>
-    <row r="8" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="137">
+      <c r="L8" s="136">
         <v>41255</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="142" t="s">
+    <row r="9" spans="1:12" ht="21" customHeight="1">
+      <c r="A9" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="143" t="s">
+      <c r="H9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="143" t="s">
+      <c r="J9" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143" t="s">
+      <c r="K9" s="147"/>
+      <c r="L9" s="147" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="145" t="s">
+    <row r="10" spans="1:12" ht="18" customHeight="1">
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-    </row>
-    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="142"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="134" t="s">
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1">
+      <c r="A11" s="149"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="134" t="s">
+      <c r="K11" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="145"/>
+      <c r="L11" s="148"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="17">
+  <mergeCells count="15">
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="L9:L11"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="F9:F11"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="20" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;D   &amp;T&amp;Rстр. &amp;P/&amp;N</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3369,7 +3258,7 @@
   </sheetPr>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="14" ySplit="11" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:IV2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:IV2"/>
@@ -3381,10 +3270,10 @@
   <cols>
     <col min="1" max="1" width="3.7109375" style="24" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="150" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="139" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="150" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="139" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="25" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="26" customWidth="1"/>
@@ -3399,12 +3288,12 @@
         <v>34</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="149"/>
+      <c r="C1" s="138"/>
       <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="149"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3451,22 +3340,22 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
       <c r="Q3" s="117"/>
@@ -3482,72 +3371,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="144"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="144"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3564,78 +3453,78 @@
       <c r="K8" s="30"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="138">
+      <c r="N8" s="137">
         <v>41255</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="143" t="s">
+      <c r="H9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="143" t="s">
+      <c r="J9" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143" t="s">
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="145" t="s">
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145" t="s">
+      <c r="K10" s="148"/>
+      <c r="L10" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
     </row>
     <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="142"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -3648,14 +3537,11 @@
       <c r="M11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="145"/>
+      <c r="N11" s="148"/>
     </row>
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="L10:M10"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A3:N3"/>
@@ -3671,6 +3557,9 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="G9:G11"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="L10:M10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3768,21 +3657,21 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
       <c r="N3" s="122"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -3799,72 +3688,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3885,69 +3774,69 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="143" t="s">
+      <c r="H9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="143" t="s">
+      <c r="J9" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
     </row>
     <row r="10" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="145" t="s">
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145" t="s">
+      <c r="K10" s="148"/>
+      <c r="L10" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="145"/>
+      <c r="M10" s="148"/>
     </row>
     <row r="11" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A11" s="142"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -4302,10 +4191,6 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="J10:K10"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="C9:C11"/>
@@ -4319,6 +4204,10 @@
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4411,19 +4300,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
       <c r="L3" s="122"/>
       <c r="M3" s="117"/>
       <c r="N3" s="117"/>
@@ -4440,64 +4329,64 @@
       <c r="Y3" s="117"/>
     </row>
     <row r="4" spans="1:25" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
     </row>
     <row r="6" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
     </row>
     <row r="8" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4516,48 +4405,48 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" customHeight="1">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="143" t="s">
+      <c r="H9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="143" t="s">
+      <c r="J9" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="143"/>
+      <c r="K9" s="147"/>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="33" t="s">
         <v>23</v>
       </c>
@@ -4971,18 +4860,18 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
       <c r="K3" s="122"/>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -4999,60 +4888,60 @@
       <c r="X3" s="117"/>
     </row>
     <row r="4" spans="1:24" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="1:24" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5070,31 +4959,31 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="146" t="s">
+      <c r="E9" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="152" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="32" t="s">
@@ -5102,15 +4991,15 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1">
-      <c r="A10" s="146"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
       <c r="J10" s="33" t="s">
         <v>10</v>
       </c>
@@ -5500,19 +5389,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="121" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
       <c r="L3" s="119"/>
       <c r="M3" s="120"/>
       <c r="N3" s="120"/>
@@ -5529,64 +5418,64 @@
       <c r="Y3" s="120"/>
     </row>
     <row r="4" spans="1:25" s="79" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
     </row>
     <row r="5" spans="1:25" s="98" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
     </row>
     <row r="6" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
     </row>
     <row r="8" spans="1:25" s="99" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5605,48 +5494,48 @@
       </c>
     </row>
     <row r="9" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="143" t="s">
+      <c r="H9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="143" t="s">
+      <c r="J9" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="143"/>
+      <c r="K9" s="147"/>
     </row>
     <row r="10" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="33" t="s">
         <v>23</v>
       </c>
@@ -6065,21 +5954,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:26" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
       <c r="N3" s="117"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -6095,72 +5984,72 @@
       <c r="Z3" s="117"/>
     </row>
     <row r="4" spans="1:26" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
     </row>
     <row r="5" spans="1:26" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
     </row>
     <row r="6" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
     </row>
     <row r="7" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
     </row>
     <row r="8" spans="1:26" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -6181,71 +6070,71 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="143" t="s">
+      <c r="H9" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="143" t="s">
+      <c r="J9" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
     </row>
     <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
       <c r="J10" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="145" t="s">
+      <c r="K10" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="145"/>
-      <c r="M10" s="148" t="s">
+      <c r="L10" s="148"/>
+      <c r="M10" s="153" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="142"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
       <c r="J11" s="34" t="s">
         <v>28</v>
       </c>
@@ -6255,7 +6144,7 @@
       <c r="L11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="148"/>
+      <c r="M11" s="153"/>
     </row>
     <row r="12" spans="1:26" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="35"/>
@@ -6596,6 +6485,8 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="H9:H11"/>
@@ -6611,8 +6502,6 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="J9:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/temp.xlsx
+++ b/templates/temp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ЭтаКнига" checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="360" windowWidth="10575" windowHeight="7035" tabRatio="678" activeTab="3"/>
+    <workbookView xWindow="4095" yWindow="360" windowWidth="10575" windowHeight="7035" tabRatio="678" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="МАСТЕР ЛИСТ" sheetId="13" r:id="rId1"/>
@@ -964,7 +964,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1520,6 +1520,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="33" fillId="25" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1560,15 +1570,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="33" fillId="25" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2418,19 +2421,19 @@
       <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -2447,34 +2450,34 @@
       <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -2852,7 +2855,7 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;D   &amp;T&amp;Rстр. &amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -2912,17 +2915,17 @@
       <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2939,30 +2942,30 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -3078,9 +3081,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3094,60 +3097,60 @@
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="143" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="156"/>
-    <col min="11" max="11" width="9.140625" style="155"/>
+    <col min="10" max="10" width="9.140625" style="146"/>
+    <col min="11" max="11" width="9.140625" style="145"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1"/>
     <row r="2" spans="1:12" ht="50.25" customHeight="1"/>
     <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
@@ -3158,74 +3161,77 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="147" t="s">
+      <c r="J9" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="150" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148" t="s">
+      <c r="A10" s="152"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="154" t="s">
+      <c r="K11" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="148"/>
+      <c r="L11" s="151"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3258,7 +3264,7 @@
   </sheetPr>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="14" ySplit="11" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:IV2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:IV2"/>
@@ -3340,22 +3346,22 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
       <c r="Q3" s="117"/>
@@ -3371,72 +3377,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="151"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="151"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3458,73 +3464,73 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="147" t="s">
+      <c r="J9" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148" t="s">
+      <c r="A10" s="152"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148" t="s">
+      <c r="K10" s="151"/>
+      <c r="L10" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
     </row>
     <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -3537,11 +3543,13 @@
       <c r="M11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="148"/>
+      <c r="N11" s="151"/>
     </row>
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A3:N3"/>
@@ -3558,8 +3566,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="J9:M9"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="L10:M10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3657,21 +3663,21 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
       <c r="N3" s="122"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -3688,72 +3694,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3774,69 +3780,69 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="147" t="s">
+      <c r="J9" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148" t="s">
+      <c r="A10" s="152"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148" t="s">
+      <c r="K10" s="151"/>
+      <c r="L10" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="148"/>
+      <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -4191,6 +4197,7 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="C9:C11"/>
@@ -4207,7 +4214,6 @@
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4300,19 +4306,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
       <c r="L3" s="122"/>
       <c r="M3" s="117"/>
       <c r="N3" s="117"/>
@@ -4329,64 +4335,64 @@
       <c r="Y3" s="117"/>
     </row>
     <row r="4" spans="1:25" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
     </row>
     <row r="6" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
     </row>
     <row r="7" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
     </row>
     <row r="8" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4405,48 +4411,48 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="147" t="s">
+      <c r="J9" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="147"/>
+      <c r="K9" s="150"/>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
+      <c r="A10" s="152"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
       <c r="J10" s="33" t="s">
         <v>23</v>
       </c>
@@ -4860,18 +4866,18 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
       <c r="K3" s="122"/>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -4888,60 +4894,60 @@
       <c r="X3" s="117"/>
     </row>
     <row r="4" spans="1:24" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
     </row>
     <row r="5" spans="1:24" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
     </row>
     <row r="7" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4959,31 +4965,31 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="150" t="s">
+      <c r="E9" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="152" t="s">
+      <c r="F9" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="152" t="s">
+      <c r="H9" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="152" t="s">
+      <c r="I9" s="155" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="32" t="s">
@@ -4991,15 +4997,15 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1">
-      <c r="A10" s="150"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="33" t="s">
         <v>10</v>
       </c>
@@ -5389,19 +5395,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="121" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
       <c r="L3" s="119"/>
       <c r="M3" s="120"/>
       <c r="N3" s="120"/>
@@ -5418,64 +5424,64 @@
       <c r="Y3" s="120"/>
     </row>
     <row r="4" spans="1:25" s="79" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
     </row>
     <row r="5" spans="1:25" s="98" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
     </row>
     <row r="6" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
     </row>
     <row r="7" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
     </row>
     <row r="8" spans="1:25" s="99" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5494,48 +5500,48 @@
       </c>
     </row>
     <row r="9" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="147" t="s">
+      <c r="J9" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="147"/>
+      <c r="K9" s="150"/>
     </row>
     <row r="10" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
+      <c r="A10" s="152"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
       <c r="J10" s="33" t="s">
         <v>23</v>
       </c>
@@ -5954,21 +5960,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:26" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
       <c r="N3" s="117"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -5984,72 +5990,72 @@
       <c r="Z3" s="117"/>
     </row>
     <row r="4" spans="1:26" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
     </row>
     <row r="5" spans="1:26" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
     </row>
     <row r="6" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
     </row>
     <row r="7" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
     </row>
     <row r="8" spans="1:26" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -6070,71 +6076,71 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="147" t="s">
+      <c r="I9" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="147" t="s">
+      <c r="J9" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
+      <c r="A10" s="152"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
       <c r="J10" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="148" t="s">
+      <c r="K10" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="148"/>
-      <c r="M10" s="153" t="s">
+      <c r="L10" s="151"/>
+      <c r="M10" s="156" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="34" t="s">
         <v>28</v>
       </c>
@@ -6144,7 +6150,7 @@
       <c r="L11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="153"/>
+      <c r="M11" s="156"/>
     </row>
     <row r="12" spans="1:26" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="35"/>
@@ -6485,11 +6491,6 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="H9:H11"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
@@ -6502,6 +6503,11 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="J9:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/temp.xlsx
+++ b/templates/temp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="360" windowWidth="10575" windowHeight="7035" tabRatio="678" activeTab="2"/>
+    <workbookView xWindow="4095" yWindow="360" windowWidth="10575" windowHeight="7035" tabRatio="678"/>
   </bookViews>
   <sheets>
     <sheet name="МАСТЕР ЛИСТ" sheetId="13" r:id="rId1"/>
@@ -964,7 +964,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1530,6 +1530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1570,8 +1573,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="33" fillId="25" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2370,7 +2390,7 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A25" sqref="A6:N25"/>
       <selection pane="topRight" activeCell="A25" sqref="A6:N25"/>
@@ -2421,19 +2441,19 @@
       <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -2450,34 +2470,34 @@
       <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -2855,7 +2875,7 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;D   &amp;T&amp;Rстр. &amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -2915,17 +2935,17 @@
       <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2942,30 +2962,30 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -3083,8 +3103,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3092,9 +3112,10 @@
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="143" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="158"/>
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="143" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="158" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="143" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="146"/>
@@ -3105,52 +3126,52 @@
     <row r="1" spans="1:12" ht="4.5" customHeight="1"/>
     <row r="2" spans="1:12" ht="50.25" customHeight="1"/>
     <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
@@ -3161,77 +3182,77 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="150" t="s">
+      <c r="G9" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="150" t="s">
+      <c r="I9" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="150" t="s">
+      <c r="J9" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150" t="s">
+      <c r="K9" s="151"/>
+      <c r="L9" s="151" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
-      <c r="A10" s="152"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151" t="s">
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1">
-      <c r="A11" s="152"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="142" t="s">
         <v>28</v>
       </c>
       <c r="K11" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="151"/>
+      <c r="L11" s="152"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="157"/>
+      <c r="A12" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3269,7 +3290,7 @@
       <selection activeCell="A2" sqref="A2:IV2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:IV2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:IV2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3277,10 +3298,10 @@
     <col min="1" max="1" width="3.7109375" style="24" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="24" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="139" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="163" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="139" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="163" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="25" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="26" customWidth="1"/>
     <col min="10" max="12" width="6.7109375" style="27" customWidth="1"/>
@@ -3295,12 +3316,12 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="138"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="160" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="138"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="160" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="2"/>
@@ -3323,10 +3344,10 @@
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="D2" s="161"/>
       <c r="E2" s="125"/>
       <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="G2" s="161"/>
       <c r="H2" s="125"/>
       <c r="I2" s="125"/>
       <c r="J2" s="125"/>
@@ -3346,22 +3367,22 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
       <c r="Q3" s="117"/>
@@ -3377,72 +3398,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="154"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3450,10 +3471,10 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="162"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="12"/>
       <c r="I8" s="10"/>
       <c r="K8" s="30"/>
@@ -3464,73 +3485,73 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="150" t="s">
+      <c r="G9" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="150" t="s">
+      <c r="I9" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="150" t="s">
+      <c r="J9" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150" t="s">
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="152"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151" t="s">
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151" t="s">
+      <c r="K10" s="152"/>
+      <c r="L10" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
     </row>
     <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="152"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -3543,11 +3564,13 @@
       <c r="M11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="151"/>
+      <c r="N11" s="152"/>
     </row>
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="J9:M9"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="F9:F11"/>
@@ -3564,8 +3587,6 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D9:D11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="J9:M9"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3663,21 +3684,21 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
       <c r="N3" s="122"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -3694,72 +3715,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3780,69 +3801,69 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="150" t="s">
+      <c r="G9" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="150" t="s">
+      <c r="I9" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="150" t="s">
+      <c r="J9" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A10" s="152"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151" t="s">
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151" t="s">
+      <c r="K10" s="152"/>
+      <c r="L10" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="151"/>
+      <c r="M10" s="152"/>
     </row>
     <row r="11" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A11" s="152"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -4197,6 +4218,7 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A9:A11"/>
@@ -4213,7 +4235,6 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4306,19 +4327,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="122"/>
       <c r="M3" s="117"/>
       <c r="N3" s="117"/>
@@ -4335,64 +4356,64 @@
       <c r="Y3" s="117"/>
     </row>
     <row r="4" spans="1:25" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
     </row>
     <row r="6" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
     </row>
     <row r="7" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
     </row>
     <row r="8" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4411,48 +4432,48 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" customHeight="1">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="150" t="s">
+      <c r="G9" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="150" t="s">
+      <c r="I9" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="150" t="s">
+      <c r="J9" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="150"/>
+      <c r="K9" s="151"/>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1">
-      <c r="A10" s="152"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="33" t="s">
         <v>23</v>
       </c>
@@ -4866,18 +4887,18 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
       <c r="K3" s="122"/>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -4894,60 +4915,60 @@
       <c r="X3" s="117"/>
     </row>
     <row r="4" spans="1:24" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
     </row>
     <row r="5" spans="1:24" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
     </row>
     <row r="6" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
     </row>
     <row r="7" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4965,31 +4986,31 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="155" t="s">
+      <c r="F9" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="155" t="s">
+      <c r="I9" s="156" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="32" t="s">
@@ -4997,15 +5018,15 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
       <c r="J10" s="33" t="s">
         <v>10</v>
       </c>
@@ -5395,19 +5416,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="121" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="119"/>
       <c r="M3" s="120"/>
       <c r="N3" s="120"/>
@@ -5424,64 +5445,64 @@
       <c r="Y3" s="120"/>
     </row>
     <row r="4" spans="1:25" s="79" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
     </row>
     <row r="5" spans="1:25" s="98" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
     </row>
     <row r="6" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
     </row>
     <row r="7" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
     </row>
     <row r="8" spans="1:25" s="99" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5500,48 +5521,48 @@
       </c>
     </row>
     <row r="9" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="150" t="s">
+      <c r="G9" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="150" t="s">
+      <c r="I9" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="150" t="s">
+      <c r="J9" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="150"/>
+      <c r="K9" s="151"/>
     </row>
     <row r="10" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="152"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="33" t="s">
         <v>23</v>
       </c>
@@ -5960,21 +5981,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:26" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
       <c r="N3" s="117"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -5990,72 +6011,72 @@
       <c r="Z3" s="117"/>
     </row>
     <row r="4" spans="1:26" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
     </row>
     <row r="5" spans="1:26" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
     </row>
     <row r="6" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
     </row>
     <row r="7" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
     </row>
     <row r="8" spans="1:26" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -6076,71 +6097,71 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="150" t="s">
+      <c r="G9" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="150" t="s">
+      <c r="I9" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="150" t="s">
+      <c r="J9" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="152"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="151" t="s">
+      <c r="K10" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="151"/>
-      <c r="M10" s="156" t="s">
+      <c r="L10" s="152"/>
+      <c r="M10" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="152"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="34" t="s">
         <v>28</v>
       </c>
@@ -6150,7 +6171,7 @@
       <c r="L11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="156"/>
+      <c r="M11" s="157"/>
     </row>
     <row r="12" spans="1:26" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="35"/>
@@ -6491,6 +6512,7 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
@@ -6507,7 +6529,6 @@
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/temp.xlsx
+++ b/templates/temp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ЭтаКнига" checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="360" windowWidth="10575" windowHeight="7035" tabRatio="678"/>
+    <workbookView xWindow="4095" yWindow="360" windowWidth="10575" windowHeight="7035" tabRatio="678" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="МАСТЕР ЛИСТ" sheetId="13" r:id="rId1"/>
@@ -23,22 +23,22 @@
     <definedName name="Print_Area" localSheetId="3">'КЛАССИКА С ПЕРЕПРЫЖКОЙ'!$A$2:$N$11</definedName>
     <definedName name="Print_Area" localSheetId="0">'МАСТЕР ЛИСТ'!$A$1:$K$29</definedName>
     <definedName name="Print_Area" localSheetId="7">'НА МАКСИМУМ БАЛЛОВ'!$A$2:$K$32</definedName>
-    <definedName name="Print_Area" localSheetId="5">'ПО ВОЗРАСТАЮЩЕЙ СЛОЖНОСТИ'!$A$2:$K$32</definedName>
+    <definedName name="Print_Area" localSheetId="5">'ПО ВОЗРАСТАЮЩЕЙ СЛОЖНОСТИ'!$A$2:$K$31</definedName>
     <definedName name="Print_Area" localSheetId="6">'ПО ТАБЛИЦЕ С'!$A$2:$J$32</definedName>
     <definedName name="Print_Area" localSheetId="1">СТАРТ!$A$1:$I$6</definedName>
     <definedName name="Print_Titles" localSheetId="8">'2 ГИТА'!$9:$11</definedName>
     <definedName name="Print_Titles" localSheetId="3">'КЛАССИКА С ПЕРЕПРЫЖКОЙ'!$9:$11</definedName>
     <definedName name="Print_Titles" localSheetId="0">'МАСТЕР ЛИСТ'!$6:$6</definedName>
     <definedName name="Print_Titles" localSheetId="7">'НА МАКСИМУМ БАЛЛОВ'!$9:$10</definedName>
-    <definedName name="Print_Titles" localSheetId="5">'ПО ВОЗРАСТАЮЩЕЙ СЛОЖНОСТИ'!$9:$10</definedName>
+    <definedName name="Print_Titles" localSheetId="5">'ПО ВОЗРАСТАЮЩЕЙ СЛОЖНОСТИ'!$8:$9</definedName>
     <definedName name="Print_Titles" localSheetId="6">'ПО ТАБЛИЦЕ С'!$9:$10</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="66">
   <si>
     <t xml:space="preserve">Преодоление препятствий </t>
   </si>
@@ -287,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="49">
+  <fonts count="51">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -630,6 +630,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -761,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -913,6 +926,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -964,7 +1003,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1533,6 +1572,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="31" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1545,6 +1624,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="33" fillId="25" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1573,24 +1656,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="33" fillId="25" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="14" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2390,7 +2493,7 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A25" sqref="A6:N25"/>
       <selection pane="topRight" activeCell="A25" sqref="A6:N25"/>
@@ -2441,19 +2544,19 @@
       <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -2470,34 +2573,34 @@
       <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -2875,7 +2978,7 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;D   &amp;T&amp;Rстр. &amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -2935,17 +3038,17 @@
       <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:25" ht="30" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2962,30 +3065,30 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="1:25" ht="15.95" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -3112,10 +3215,10 @@
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="143" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="158"/>
+    <col min="4" max="4" width="9.140625" style="148"/>
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="143" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="158" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="148" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="143" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="146"/>
@@ -3126,52 +3229,52 @@
     <row r="1" spans="1:12" ht="4.5" customHeight="1"/>
     <row r="2" spans="1:12" ht="50.25" customHeight="1"/>
     <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
@@ -3182,74 +3285,74 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="151" t="s">
+      <c r="H9" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="151" t="s">
+      <c r="I9" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="151" t="s">
+      <c r="J9" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151" t="s">
+      <c r="K9" s="163"/>
+      <c r="L9" s="163" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="152" t="s">
+      <c r="A10" s="165"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
       <c r="J11" s="142" t="s">
         <v>28</v>
       </c>
       <c r="K11" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="152"/>
+      <c r="L11" s="164"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="147"/>
@@ -3298,10 +3401,10 @@
     <col min="1" max="1" width="3.7109375" style="24" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="24" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="139" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="163" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="152" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="139" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="163" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="152" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="25" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="26" customWidth="1"/>
     <col min="10" max="12" width="6.7109375" style="27" customWidth="1"/>
@@ -3316,12 +3419,12 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="138"/>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="149" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="138"/>
-      <c r="G1" s="160" t="s">
+      <c r="G1" s="149" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="2"/>
@@ -3344,10 +3447,10 @@
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
-      <c r="D2" s="161"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="125"/>
       <c r="F2" s="125"/>
-      <c r="G2" s="161"/>
+      <c r="G2" s="150"/>
       <c r="H2" s="125"/>
       <c r="I2" s="125"/>
       <c r="J2" s="125"/>
@@ -3367,22 +3470,22 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
       <c r="Q3" s="117"/>
@@ -3398,72 +3501,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
-      <c r="N5" s="149"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3471,10 +3574,10 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="162"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="162"/>
+      <c r="G8" s="151"/>
       <c r="H8" s="12"/>
       <c r="I8" s="10"/>
       <c r="K8" s="30"/>
@@ -3485,73 +3588,73 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="151" t="s">
+      <c r="H9" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="151" t="s">
+      <c r="I9" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="151" t="s">
+      <c r="J9" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151" t="s">
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="152" t="s">
+      <c r="A10" s="165"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152" t="s">
+      <c r="K10" s="164"/>
+      <c r="L10" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
     </row>
     <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -3564,12 +3667,11 @@
       <c r="M11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="152"/>
+      <c r="N11" s="164"/>
     </row>
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
-    <mergeCell ref="G9:G11"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="L10:M10"/>
@@ -3587,6 +3689,7 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3684,21 +3787,21 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:27" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
       <c r="N3" s="122"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -3715,72 +3818,72 @@
       <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="1:27" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
     </row>
     <row r="6" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
     </row>
     <row r="7" spans="1:27" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3801,69 +3904,69 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="151" t="s">
+      <c r="H9" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="151" t="s">
+      <c r="I9" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="151" t="s">
+      <c r="J9" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
     </row>
     <row r="10" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="152" t="s">
+      <c r="A10" s="165"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152" t="s">
+      <c r="K10" s="164"/>
+      <c r="L10" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="152"/>
+      <c r="M10" s="164"/>
     </row>
     <row r="11" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
       <c r="J11" s="33" t="s">
         <v>28</v>
       </c>
@@ -4218,6 +4321,9 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="A3:M3"/>
@@ -4232,9 +4338,6 @@
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4252,14 +4355,14 @@
   <sheetPr codeName="Лист4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="10" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:IV2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:IV2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:IV2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11:K11"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4267,13 +4370,14 @@
     <col min="1" max="1" width="3.7109375" style="78" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="78" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="79" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="79" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="156" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" style="79" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="79" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="79" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="177" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="156" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="80" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="81" customWidth="1"/>
-    <col min="10" max="11" width="6.7109375" style="78" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="78" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="78" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -4283,12 +4387,12 @@
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="149" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="172"/>
+      <c r="G1" s="149" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="91"/>
@@ -4304,10 +4408,10 @@
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="150"/>
       <c r="H2" s="125"/>
       <c r="I2" s="125"/>
       <c r="J2" s="125"/>
@@ -4327,19 +4431,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="122"/>
       <c r="M3" s="117"/>
       <c r="N3" s="117"/>
@@ -4356,283 +4460,281 @@
       <c r="Y3" s="117"/>
     </row>
     <row r="4" spans="1:25" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
     </row>
     <row r="6" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-    </row>
-    <row r="7" spans="1:25" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="155" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-    </row>
-    <row r="8" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+    </row>
+    <row r="7" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="170" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:25" ht="30" customHeight="1">
+      <c r="A8" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="163" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="178" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="162" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="163" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="163"/>
+    </row>
     <row r="9" spans="1:25" ht="30" customHeight="1">
-      <c r="A9" s="153" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="151" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="151" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="151"/>
-    </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="33" t="s">
+      <c r="A9" s="165"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="10" spans="1:25" s="14" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="1:25" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="41"/>
-      <c r="D11" s="51"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="42"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="50"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="42"/>
       <c r="J11" s="67"/>
       <c r="K11" s="67"/>
     </row>
-    <row r="12" spans="1:25" s="14" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:25" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="42"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="67"/>
       <c r="K12" s="67"/>
     </row>
-    <row r="13" spans="1:25" s="15" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:25" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
     </row>
-    <row r="14" spans="1:25" s="14" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:25" s="16" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
     </row>
-    <row r="15" spans="1:25" s="16" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:25" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="48"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="67"/>
       <c r="K15" s="67"/>
     </row>
     <row r="16" spans="1:25" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="67"/>
       <c r="K16" s="67"/>
     </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="67"/>
       <c r="K17" s="67"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
+    <row r="18" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="67"/>
       <c r="K18" s="67"/>
     </row>
-    <row r="19" spans="1:12" s="18" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="67"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="74"/>
       <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="51"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="45"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="74"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="67"/>
     </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
+    <row r="21" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="40"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="67"/>
       <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="157"/>
       <c r="E22" s="51"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="52"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="67"/>
       <c r="K22" s="67"/>
@@ -4640,161 +4742,147 @@
     <row r="23" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="157"/>
       <c r="E23" s="51"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="88"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="154"/>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
       <c r="J23" s="67"/>
       <c r="K23" s="67"/>
     </row>
-    <row r="24" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
+    <row r="24" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="157"/>
       <c r="E24" s="51"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="67"/>
       <c r="K24" s="67"/>
     </row>
     <row r="25" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="157"/>
       <c r="E25" s="51"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="88"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="154"/>
       <c r="H25" s="51"/>
-      <c r="I25" s="53"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="67"/>
       <c r="K25" s="67"/>
     </row>
-    <row r="26" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="51"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="45"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="51"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="42"/>
       <c r="J26" s="67"/>
       <c r="K26" s="67"/>
     </row>
-    <row r="27" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="42"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="45"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="42"/>
       <c r="J27" s="67"/>
       <c r="K27" s="67"/>
     </row>
-    <row r="28" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1">
+    <row r="28" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="45"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="157"/>
       <c r="E28" s="51"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="88"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="154"/>
       <c r="H28" s="52"/>
       <c r="I28" s="42"/>
       <c r="J28" s="67"/>
       <c r="K28" s="67"/>
     </row>
-    <row r="29" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
+    <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+    </row>
+    <row r="30" spans="1:12" s="94" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="158"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="155"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="93"/>
     </row>
     <row r="31" spans="1:12" s="94" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="D31" s="158"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="20"/>
       <c r="I31" s="23"/>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="93"/>
     </row>
-    <row r="32" spans="1:12" s="94" customFormat="1" ht="30" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="93"/>
-    </row>
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4887,18 +4975,18 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
       <c r="K3" s="122"/>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -4915,60 +5003,60 @@
       <c r="X3" s="117"/>
     </row>
     <row r="4" spans="1:24" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
     </row>
     <row r="5" spans="1:24" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
     </row>
     <row r="6" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
     </row>
     <row r="7" spans="1:24" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4986,31 +5074,31 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="154" t="s">
+      <c r="E9" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="156" t="s">
+      <c r="F9" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="156" t="s">
+      <c r="H9" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="156" t="s">
+      <c r="I9" s="168" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="32" t="s">
@@ -5018,15 +5106,15 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="33" t="s">
         <v>10</v>
       </c>
@@ -5416,19 +5504,19 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="121" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="119"/>
       <c r="M3" s="120"/>
       <c r="N3" s="120"/>
@@ -5445,64 +5533,64 @@
       <c r="Y3" s="120"/>
     </row>
     <row r="4" spans="1:25" s="79" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
     </row>
     <row r="5" spans="1:25" s="98" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
     </row>
     <row r="6" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
     </row>
     <row r="7" spans="1:25" s="97" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
     </row>
     <row r="8" spans="1:25" s="99" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -5521,48 +5609,48 @@
       </c>
     </row>
     <row r="9" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="151" t="s">
+      <c r="H9" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="151" t="s">
+      <c r="I9" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="151" t="s">
+      <c r="J9" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="151"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:25" s="79" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
       <c r="J10" s="33" t="s">
         <v>23</v>
       </c>
@@ -5981,21 +6069,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:26" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
       <c r="N3" s="117"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -6011,72 +6099,72 @@
       <c r="Z3" s="117"/>
     </row>
     <row r="4" spans="1:26" s="124" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="5" spans="1:26" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
     </row>
     <row r="6" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
     </row>
     <row r="7" spans="1:26" s="123" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
     </row>
     <row r="8" spans="1:26" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -6097,71 +6185,71 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="151" t="s">
+      <c r="H9" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="151" t="s">
+      <c r="I9" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="151" t="s">
+      <c r="J9" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
     </row>
     <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
       <c r="J10" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="152" t="s">
+      <c r="K10" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="152"/>
-      <c r="M10" s="157" t="s">
+      <c r="L10" s="164"/>
+      <c r="M10" s="169" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
+      <c r="A11" s="165"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
       <c r="J11" s="34" t="s">
         <v>28</v>
       </c>
@@ -6171,7 +6259,7 @@
       <c r="L11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="157"/>
+      <c r="M11" s="169"/>
     </row>
     <row r="12" spans="1:26" s="14" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="35"/>
@@ -6512,6 +6600,9 @@
   </sheetData>
   <sheetProtection password="DF46" sheet="1" objects="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="E9:E11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
@@ -6526,9 +6617,6 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="M10:M11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
